--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Ivanov\Desktop\KessHSP\translator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianivanov/Desktop/translator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2391D14-4248-4348-B771-E638E5EB3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD51845D-8048-4F43-BDED-928913F8ADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepL" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Original Text German</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>In einer zunehmend globalisierten Welt spielt kulturelle Vielfalt eine entscheidende Rolle für das Verständnis und die Akzeptanz unterschiedlicher Lebensweisen. Kulturelle Vielfalt bezieht sich auf die Vielzahl von Kulturen, Sprachen, Kunst, Traditionen und sozialen Normen, die weltweit existieren.</t>
+  </si>
+  <si>
+    <t>Biodiversität bezieht sich auf die Vielfalt des Lebens auf der Erde in all seinen Formen und Interaktionen. Sie umfasst die Vielfalt der Arten, der genetischen Variationen innerhalb der Arten und der Ökosysteme. </t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,24 +518,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="25.7109375" style="2"/>
+    <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="25.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -558,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -569,7 +572,10 @@
       <c r="F2" s="21"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" s="13"/>
       <c r="C3" s="15"/>
       <c r="D3" s="17"/>
@@ -577,7 +583,7 @@
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="15"/>
       <c r="D4" s="17"/>
@@ -585,7 +591,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="15"/>
       <c r="D5" s="17"/>
@@ -593,7 +599,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
       <c r="D6" s="17"/>
@@ -610,24 +616,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="25.7109375" style="2"/>
+    <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="25.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -653,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -664,7 +670,10 @@
       <c r="F2" s="21"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" s="13"/>
       <c r="C3" s="15"/>
       <c r="D3" s="17"/>
@@ -672,7 +681,7 @@
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="15"/>
       <c r="D4" s="17"/>
@@ -680,7 +689,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="15"/>
       <c r="D5" s="17"/>
@@ -688,7 +697,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
       <c r="D6" s="17"/>
